--- a/mc/indicators/xl/reserves.xlsx
+++ b/mc/indicators/xl/reserves.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="111">
   <si>
     <t>Economy</t>
   </si>
@@ -351,7 +351,7 @@
     <t>International reserves (US$ billion)</t>
   </si>
   <si>
-    <t>Source: Economist Intelligent Unit (Oct. 2017)</t>
+    <t>Source: Economist Intelligence Unit (Oct. 2017)</t>
   </si>
 </sst>
 </file>
@@ -8510,86 +8510,86 @@
       <c r="A19" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>91</v>
+      <c r="B19" s="1">
+        <v>802</v>
       </c>
       <c r="C19" s="1">
-        <v>726.9</v>
+        <v>794.1</v>
       </c>
       <c r="D19" s="1">
-        <v>689.7</v>
+        <v>859.2</v>
       </c>
       <c r="E19" s="1">
-        <v>720.9</v>
+        <v>909</v>
       </c>
       <c r="F19" s="1">
-        <v>801.8</v>
+        <v>1016.7</v>
       </c>
       <c r="G19" s="1">
-        <v>918.9</v>
+        <v>1141.3</v>
       </c>
       <c r="H19" s="1">
-        <v>980.8</v>
+        <v>1218.1</v>
       </c>
       <c r="I19" s="1">
-        <v>962.5</v>
+        <v>1199.4</v>
       </c>
       <c r="J19" s="1">
-        <v>979.1</v>
+        <v>1246.7</v>
       </c>
       <c r="K19" s="1">
-        <v>1006.2</v>
+        <v>1320.4</v>
       </c>
       <c r="L19" s="1">
-        <v>1071.2</v>
+        <v>1420.8</v>
       </c>
       <c r="M19" s="1">
-        <v>1089.4</v>
+        <v>1458.7</v>
       </c>
       <c r="N19" s="1">
-        <v>1275.2</v>
+        <v>1702.5</v>
       </c>
       <c r="O19" s="1">
-        <v>1555.9</v>
+        <v>2070.2</v>
       </c>
       <c r="P19" s="1">
-        <v>1772.3</v>
+        <v>2372.7</v>
       </c>
       <c r="Q19" s="1">
-        <v>1746.2</v>
+        <v>2361.4</v>
       </c>
       <c r="R19" s="1">
-        <v>1915.2</v>
+        <v>2580.1</v>
       </c>
       <c r="S19" s="1">
-        <v>2134.3</v>
+        <v>2839.5</v>
       </c>
       <c r="T19" s="1">
-        <v>2197.1</v>
+        <v>2900.7</v>
       </c>
       <c r="U19" s="1">
-        <v>2604.7</v>
+        <v>3488</v>
       </c>
       <c r="V19" s="1">
-        <v>2958.2</v>
+        <v>3937.3</v>
       </c>
       <c r="W19" s="1">
-        <v>3348.5</v>
+        <v>4376</v>
       </c>
       <c r="X19" s="1">
-        <v>3599.9</v>
+        <v>4693</v>
       </c>
       <c r="Y19" s="1">
-        <v>3490.2</v>
+        <v>4619.8</v>
       </c>
       <c r="Z19" s="1">
-        <v>3452.3</v>
+        <v>4620.4</v>
       </c>
       <c r="AA19" s="1">
-        <v>3420</v>
+        <v>4640.2</v>
       </c>
       <c r="AB19" s="1">
-        <v>3587.6</v>
+        <v>4830.4</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>91</v>
